--- a/biology/Médecine/1187_en_santé_et_médecine/1187_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1187_en_santé_et_médecine/1187_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1187_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1187_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1187 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1187_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1187_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1149[1] ou 1187 : fondation de St. Lawrence's Hospital par Hugues, deuxième du nom, abbé de Saint-Augustin de Cantorbéry, « pour le soulagement des moines lépreux ou de pauvres parents de moines de cette abbaye[2] ».
-« L'hôpital des pauvres, qui est l'ancêtre de l'hôpital actuel de Fécamp », en Normandie, est mentionné pour la première fois hors les murs de la forteresse[3].
-Un hôpital Saint-Nicolas est attesté hors les murs de la ville de Bayonne au Pays basque, près de la porte d'Espagne[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1149 ou 1187 : fondation de St. Lawrence's Hospital par Hugues, deuxième du nom, abbé de Saint-Augustin de Cantorbéry, « pour le soulagement des moines lépreux ou de pauvres parents de moines de cette abbaye ».
+« L'hôpital des pauvres, qui est l'ancêtre de l'hôpital actuel de Fécamp », en Normandie, est mentionné pour la première fois hors les murs de la forteresse.
+Un hôpital Saint-Nicolas est attesté hors les murs de la ville de Bayonne au Pays basque, près de la porte d'Espagne.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1187_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1187_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Humbert, médecin, propriétaire à Strasbourg et Illkirch en Alsace[5], et  Jean Druda, médecin à Moras en Dauphiné[5].
-Avant 1187 : fl. Jean, médecin, cité dans une charte de l'abbaye de Clermont, près Laval, dans le Maine[5].
-1187-1202 : fl. P., médecin et chanoine, de l'entourage de Guilhem VIII, seigneur de Montpellier[6].
-Vers 1187-1223 : fl. Conrad, médecin, de l'entourage du prince-évêque de Bâle en Allemagne[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Humbert, médecin, propriétaire à Strasbourg et Illkirch en Alsace, et  Jean Druda, médecin à Moras en Dauphiné.
+Avant 1187 : fl. Jean, médecin, cité dans une charte de l'abbaye de Clermont, près Laval, dans le Maine.
+1187-1202 : fl. P., médecin et chanoine, de l'entourage de Guilhem VIII, seigneur de Montpellier.
+Vers 1187-1223 : fl. Conrad, médecin, de l'entourage du prince-évêque de Bâle en Allemagne.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1187_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1187_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vers 1187 : Gérard de Crémone (né vers 1114), traducteur, de l'arabe en latin, parmi d'autres ouvrages de médecine, du Traité pour Mansour[7] de Rhazès, de l'Al-Tasrif d'Aboulcassis et du Canon d'Avicenne[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers 1187 : Gérard de Crémone (né vers 1114), traducteur, de l'arabe en latin, parmi d'autres ouvrages de médecine, du Traité pour Mansour de Rhazès, de l'Al-Tasrif d'Aboulcassis et du Canon d'Avicenne.
 </t>
         </is>
       </c>
